--- a/res/cprsc-0.1.xlsx
+++ b/res/cprsc-0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Testcases</t>
   </si>
@@ -77,7 +77,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +116,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -214,22 +239,46 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -536,17 +585,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -582,327 +632,719 @@
       <c r="A2" s="3">
         <v>1984</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="11">
         <v>0.7611</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="11">
         <v>0.95979999999999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="11">
         <v>0.76319999999999999</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="12">
         <v>0.7611</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <v>0.82909999999999995</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="11">
         <v>0.93820000000000003</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="11">
         <v>0.82220000000000004</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="12">
         <v>0.8165</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>0.79710000000000003</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
         <v>0.94879999999999998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="13">
         <v>0.75</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <v>0.7923</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>0.85550000000000004</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="13">
         <v>0.98409999999999997</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="13">
         <v>0.98060000000000003</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="14">
         <v>0.85550000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="15">
         <v>0.89380000000000004</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>0.95009999999999994</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="15">
         <v>0.92789999999999995</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>0.89380000000000004</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>0.87870000000000004</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="15">
         <v>0.97060000000000002</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="15">
         <v>0.93140000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="14">
         <v>0.87870000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="13">
         <v>0.80830000000000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="13">
         <v>0.77170000000000005</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>0.80159999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>0.80789999999999995</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="13">
         <v>0.95909999999999995</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="13">
         <v>0.90380000000000005</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="14">
         <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="15">
         <v>0.60809999999999997</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="15">
         <v>0.7651</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="15">
         <v>0.67120000000000002</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>0.58819999999999995</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>0.87880000000000003</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="15">
         <v>0.98260000000000003</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="15">
         <v>0.9375</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="14">
         <v>0.87880000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="13">
         <v>0.83779999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="13">
         <v>0.89959999999999996</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <v>0.74419999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>0.80859999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="13">
         <v>0.82269999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="13">
         <v>0.9476</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="13">
         <v>0.87250000000000005</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="14">
         <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="15">
         <v>0.7782</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="15">
         <v>0.88480000000000003</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="15">
         <v>0.78129999999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>0.76859999999999995</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>0.79979999999999996</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="15">
         <v>0.95540000000000003</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="15">
         <v>0.82199999999999995</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="14">
         <v>0.79679999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <v>0.75939999999999996</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="13">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <v>0.75190000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="13">
         <v>0.89149999999999996</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="13">
         <v>0.97350000000000003</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="13">
         <v>0.97850000000000004</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="14">
         <v>0.88429999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="15">
         <v>0.56779999999999997</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="15">
         <v>0.79569999999999996</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="15">
         <v>0.48320000000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="14">
         <v>0.55449999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="15">
         <v>0.8196</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="15">
         <v>0.95899999999999996</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="15">
         <v>0.76290000000000002</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="14">
         <v>0.80920000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <v>0.79659999999999997</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="13">
         <v>0.93730000000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="13">
         <v>0.80869999999999997</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="14">
         <v>0.77480000000000004</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="13">
         <v>0.76870000000000005</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="13">
         <v>0.95709999999999995</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="13">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="14">
         <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="16">
         <f>AVERAGE(B2:B11)</f>
         <v>0.76082000000000005</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="16">
         <f t="shared" ref="C12:I12" si="0">AVERAGE(C2:C11)</f>
         <v>0.90058000000000005</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="16">
         <f>AVERAGE(D2:D11)</f>
         <v>0.73680999999999996</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>0.74953999999999998</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>0.83523000000000014</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>0.96272000000000002</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="16">
         <f>AVERAGE(H2:H11)</f>
         <v>0.88393999999999995</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>0.82968999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F2/B2</f>
+        <v>1.0893443699908028</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:I24" si="1">G2/C2</f>
+        <v>0.9774953115232341</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0773060796645704</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0727893837866247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15:F24" si="2">F3/B3</f>
+        <v>1.0732655877556141</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0372048903878583</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3074666666666668</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0797677647355799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.9831058402327143</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0215766761393539</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0037719581851494</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.9831058402327143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99950513423233944</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.97668024439918533</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1711805105610988</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98802395209580851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4451570465383985</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2842765651548818</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3967520858164482</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.494049642978579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98197660539508236</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0533570475767009</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1723998925020156</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0142221122928519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0277563608326907</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0797920433996384</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0520926660693715</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0366900858704138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1739531208849092</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.102991162474507</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4676766161691917</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1760872456443676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4434660091581544</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2052281010431067</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5788493377483444</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4593327321911633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.96497614863168479</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0211245065613996</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0238654630889081</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98735157459989675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0978023711258906</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0689999777920896</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1996851291377695</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1069322517810922</v>
       </c>
     </row>
   </sheetData>
